--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_34.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2708561.380824219</v>
+        <v>2703358.047363902</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.381847141</v>
+        <v>2310564.143223171</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791239</v>
+        <v>419463.093379124</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7826405.418555536</v>
+        <v>7824635.48038428</v>
       </c>
     </row>
     <row r="11">
@@ -662,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>262.8951808197543</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>206.3670033956591</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
@@ -750,13 +750,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>112.7488399627708</v>
+        <v>74.86702424530634</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -798,7 +798,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
         <v>187.4140068734885</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>132.4744804944731</v>
+        <v>55.24675346159196</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>83.84708725779358</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>172.9400050673081</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>70.07559819368576</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
         <v>135.0820259802211</v>
@@ -990,10 +990,10 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>33.54550680794641</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1035,7 +1035,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>214.0175430895177</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>92.88634631714075</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>12.725494085322</v>
@@ -1151,7 +1151,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>93.86158641218542</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>157.2126752878931</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>13.22962011024177</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>48.96087507994452</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1370,25 @@
         <v>302.4985237799665</v>
       </c>
       <c r="C11" t="n">
-        <v>295.2524720077822</v>
+        <v>295.2524720077823</v>
       </c>
       <c r="D11" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603045</v>
+        <v>74.07584602384513</v>
       </c>
       <c r="F11" t="n">
-        <v>318.7342196110055</v>
+        <v>318.7342196110056</v>
       </c>
       <c r="G11" t="n">
-        <v>315.0398534825604</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414339</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404351</v>
       </c>
       <c r="T11" t="n">
-        <v>99.73613625912138</v>
+        <v>127.2743219418611</v>
       </c>
       <c r="U11" t="n">
-        <v>159.2039277954309</v>
+        <v>159.203927795431</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>244.6944667292004</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X11" t="n">
         <v>291.5668045419573</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007184</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035424</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219397</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507228</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484035</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723248</v>
       </c>
       <c r="H13" t="n">
-        <v>59.93249105380451</v>
+        <v>59.93249105380453</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497646</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943237</v>
       </c>
       <c r="S13" t="n">
         <v>106.7966485049597</v>
@@ -1582,7 +1582,7 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U13" t="n">
-        <v>188.5931293662016</v>
+        <v>188.5931293662017</v>
       </c>
       <c r="V13" t="n">
         <v>169.3282772530676</v>
@@ -1610,10 +1610,10 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
-        <v>287.5954430211825</v>
+        <v>273.4823810173265</v>
       </c>
       <c r="E14" t="n">
-        <v>50.60279708324181</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>318.7342196110055</v>
@@ -1622,7 +1622,7 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>42.96247126414336</v>
@@ -1670,7 +1670,7 @@
         <v>273.2977702070789</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
         <v>298.5345275142884</v>
@@ -1844,7 +1844,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
         <v>251.2267481799146</v>
@@ -1853,16 +1853,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.482250613589</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380447</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -2789,19 +2789,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C29" t="n">
-        <v>295.2524720077822</v>
+        <v>295.2524720077823</v>
       </c>
       <c r="D29" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F29" t="n">
-        <v>318.7342196110055</v>
+        <v>318.7342196110056</v>
       </c>
       <c r="G29" t="n">
         <v>315.0398534825604</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.9624712641434</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404353</v>
       </c>
       <c r="T29" t="n">
-        <v>127.274321941861</v>
+        <v>127.2743219418611</v>
       </c>
       <c r="U29" t="n">
-        <v>159.2039277954309</v>
+        <v>159.203927795431</v>
       </c>
       <c r="V29" t="n">
-        <v>244.6944667292003</v>
+        <v>244.6944667292004</v>
       </c>
       <c r="W29" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007185</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035426</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219398</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507309</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484036</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.5802388872325</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380454</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497647</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943239</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3004,19 +3004,19 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
-        <v>188.5931293662016</v>
+        <v>188.5931293662017</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y31" t="n">
-        <v>126.8896660972066</v>
+        <v>126.8896660972067</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.9034269003578</v>
+        <v>280.4599644277189</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281736</v>
+        <v>273.2139126555347</v>
       </c>
       <c r="D32" t="n">
-        <v>272.0003461415738</v>
+        <v>265.556883668935</v>
       </c>
       <c r="E32" t="n">
-        <v>288.9713182806958</v>
+        <v>282.5278558080569</v>
       </c>
       <c r="F32" t="n">
-        <v>303.1391227313969</v>
+        <v>296.695660258758</v>
       </c>
       <c r="G32" t="n">
-        <v>299.4447566029517</v>
+        <v>293.0012941303129</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2558485752491</v>
+        <v>204.8123861026103</v>
       </c>
       <c r="I32" t="n">
-        <v>27.3673743845347</v>
+        <v>20.92391191189584</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443482</v>
+        <v>48.81858568179597</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622524</v>
+        <v>105.2357625896135</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158222</v>
+        <v>137.1653684431834</v>
       </c>
       <c r="V32" t="n">
-        <v>229.0993698495917</v>
+        <v>222.6559073769528</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274703</v>
+        <v>251.2592108548315</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623486</v>
+        <v>269.5282451897098</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.9394306346798</v>
+        <v>276.4959681620409</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.76956715046315</v>
+        <v>67.32610467782429</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074555</v>
+        <v>52.4732329281067</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258528</v>
+        <v>38.04694813994642</v>
       </c>
       <c r="E34" t="n">
-        <v>44.41685266546439</v>
+        <v>37.97339019282553</v>
       </c>
       <c r="F34" t="n">
-        <v>46.16630408523166</v>
+        <v>39.7228416125928</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762379</v>
+        <v>50.54167953498494</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419584</v>
+        <v>37.89393170155698</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536777</v>
+        <v>15.73364728272891</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.07560811982368</v>
+        <v>6.632145647184828</v>
       </c>
       <c r="S34" t="n">
-        <v>91.201551625351</v>
+        <v>84.75808915271215</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7754899595231</v>
+        <v>117.3320274868842</v>
       </c>
       <c r="U34" t="n">
-        <v>172.9980324865929</v>
+        <v>166.5545700139541</v>
       </c>
       <c r="V34" t="n">
-        <v>153.7331803734589</v>
+        <v>147.2897179008201</v>
       </c>
       <c r="W34" t="n">
-        <v>170.910726694209</v>
+        <v>164.4672642215702</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409216</v>
+        <v>115.7096851682827</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.294569217598</v>
+        <v>104.8511067449591</v>
       </c>
     </row>
     <row r="35">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>33.8449128370483</v>
+        <v>300.022958784051</v>
       </c>
       <c r="C41" t="n">
         <v>292.7769070118667</v>
       </c>
       <c r="D41" t="n">
-        <v>285.1198780252669</v>
+        <v>1.098310803922161</v>
       </c>
       <c r="E41" t="n">
         <v>302.0908501643889</v>
       </c>
       <c r="F41" t="n">
-        <v>316.25865461509</v>
+        <v>316.2586546150901</v>
       </c>
       <c r="G41" t="n">
-        <v>312.5642884866448</v>
+        <v>312.5642884866449</v>
       </c>
       <c r="H41" t="n">
-        <v>224.3753804589422</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>40.48690626822783</v>
+        <v>40.48690626822786</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.38158003812795</v>
+        <v>68.38158003812798</v>
       </c>
       <c r="T41" t="n">
         <v>124.7987569459455</v>
@@ -3797,13 +3797,13 @@
         <v>156.7283627995154</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>242.2189017332848</v>
       </c>
       <c r="W41" t="n">
-        <v>270.8222052111634</v>
+        <v>270.8222052111635</v>
       </c>
       <c r="X41" t="n">
-        <v>289.0912395460417</v>
+        <v>289.0912395460418</v>
       </c>
       <c r="Y41" t="n">
         <v>296.0589625183729</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.88909903415627</v>
+        <v>86.8890990341563</v>
       </c>
       <c r="C43" t="n">
-        <v>72.03622728443868</v>
+        <v>72.03622728443871</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60994249627841</v>
+        <v>57.60994249627844</v>
       </c>
       <c r="E43" t="n">
-        <v>57.53638454915752</v>
+        <v>57.53638454915755</v>
       </c>
       <c r="F43" t="n">
-        <v>59.28583596892479</v>
+        <v>59.28583596892481</v>
       </c>
       <c r="G43" t="n">
-        <v>70.10467389131692</v>
+        <v>70.10467389131695</v>
       </c>
       <c r="H43" t="n">
-        <v>57.45692605788896</v>
+        <v>57.45692605788899</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29664163906089</v>
+        <v>35.29664163906092</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.19514000351681</v>
+        <v>26.19514000351684</v>
       </c>
       <c r="S43" t="n">
-        <v>104.3210835090441</v>
+        <v>104.3210835090442</v>
       </c>
       <c r="T43" t="n">
         <v>136.8950218432162</v>
@@ -3955,13 +3955,13 @@
         <v>186.1175643702861</v>
       </c>
       <c r="V43" t="n">
-        <v>166.852712257152</v>
+        <v>166.8527122571521</v>
       </c>
       <c r="W43" t="n">
-        <v>184.0302585779021</v>
+        <v>184.0302585779022</v>
       </c>
       <c r="X43" t="n">
-        <v>135.2726795246147</v>
+        <v>135.2726795246148</v>
       </c>
       <c r="Y43" t="n">
         <v>124.4141011012911</v>
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>300.0229587840509</v>
+        <v>300.022958784051</v>
       </c>
       <c r="C44" t="n">
         <v>292.7769070118667</v>
       </c>
       <c r="D44" t="n">
-        <v>92.98158496007063</v>
+        <v>41.58521707215057</v>
       </c>
       <c r="E44" t="n">
         <v>302.0908501643889</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>316.2586546150901</v>
       </c>
       <c r="G44" t="n">
-        <v>312.5642884866448</v>
+        <v>312.5642884866449</v>
       </c>
       <c r="H44" t="n">
-        <v>224.3753804589422</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>40.48690626822781</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.38158003812794</v>
+        <v>68.38158003812798</v>
       </c>
       <c r="T44" t="n">
         <v>124.7987569459455</v>
@@ -4037,10 +4037,10 @@
         <v>242.2189017332848</v>
       </c>
       <c r="W44" t="n">
-        <v>270.8222052111634</v>
+        <v>270.8222052111635</v>
       </c>
       <c r="X44" t="n">
-        <v>289.0912395460417</v>
+        <v>289.0912395460418</v>
       </c>
       <c r="Y44" t="n">
         <v>296.0589625183729</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.88909903415626</v>
+        <v>86.8890990341563</v>
       </c>
       <c r="C46" t="n">
-        <v>72.03622728443867</v>
+        <v>72.03622728443871</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60994249627839</v>
+        <v>57.60994249627844</v>
       </c>
       <c r="E46" t="n">
-        <v>57.5363845491575</v>
+        <v>57.53638454915755</v>
       </c>
       <c r="F46" t="n">
-        <v>59.28583596892477</v>
+        <v>59.28583596892481</v>
       </c>
       <c r="G46" t="n">
-        <v>70.10467389131691</v>
+        <v>70.10467389131695</v>
       </c>
       <c r="H46" t="n">
-        <v>57.45692605788895</v>
+        <v>57.45692605788899</v>
       </c>
       <c r="I46" t="n">
-        <v>35.29664163906088</v>
+        <v>35.29664163906092</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.1951400035168</v>
+        <v>26.19514000351684</v>
       </c>
       <c r="S46" t="n">
-        <v>104.3210835090441</v>
+        <v>104.3210835090442</v>
       </c>
       <c r="T46" t="n">
         <v>136.8950218432162</v>
@@ -4192,13 +4192,13 @@
         <v>186.1175643702861</v>
       </c>
       <c r="V46" t="n">
-        <v>166.852712257152</v>
+        <v>166.8527122571521</v>
       </c>
       <c r="W46" t="n">
-        <v>184.0302585779021</v>
+        <v>184.0302585779022</v>
       </c>
       <c r="X46" t="n">
-        <v>135.2726795246147</v>
+        <v>135.2726795246148</v>
       </c>
       <c r="Y46" t="n">
         <v>124.4141011012911</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1523.539748999112</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="C2" t="n">
-        <v>1523.539748999112</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="D2" t="n">
-        <v>1138.098620215779</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="E2" t="n">
-        <v>872.5479325190579</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="F2" t="n">
-        <v>455.6534940490356</v>
+        <v>777.7441318441286</v>
       </c>
       <c r="G2" t="n">
-        <v>42.49073853703876</v>
+        <v>364.5813763321316</v>
       </c>
       <c r="H2" t="n">
-        <v>42.49073853703876</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703876</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="J2" t="n">
-        <v>42.49073853703876</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="K2" t="n">
-        <v>231.3833642101781</v>
+        <v>242.2021271932844</v>
       </c>
       <c r="L2" t="n">
-        <v>724.7036559287069</v>
+        <v>735.5224189118132</v>
       </c>
       <c r="M2" t="n">
-        <v>1250.526545324562</v>
+        <v>1236.689201907264</v>
       </c>
       <c r="N2" t="n">
-        <v>1776.349434720416</v>
+        <v>1236.689201907264</v>
       </c>
       <c r="O2" t="n">
-        <v>1776.349434720416</v>
+        <v>1676.728802799593</v>
       </c>
       <c r="P2" t="n">
-        <v>2124.536926851938</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.536926851938</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="R2" t="n">
-        <v>2086.54401313746</v>
+        <v>1986.923381216636</v>
       </c>
       <c r="S2" t="n">
-        <v>1920.03045807851</v>
+        <v>1820.409826157687</v>
       </c>
       <c r="T2" t="n">
-        <v>1920.03045807851</v>
+        <v>1596.909223717103</v>
       </c>
       <c r="U2" t="n">
-        <v>1920.03045807851</v>
+        <v>1341.156494151702</v>
       </c>
       <c r="V2" t="n">
-        <v>1920.03045807851</v>
+        <v>999.0496848552206</v>
       </c>
       <c r="W2" t="n">
-        <v>1920.03045807851</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="X2" t="n">
-        <v>1920.03045807851</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="Y2" t="n">
-        <v>1523.539748999112</v>
+        <v>790.5981662737468</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>835.6846208830461</v>
+        <v>657.743077536471</v>
       </c>
       <c r="C3" t="n">
-        <v>685.0303904431383</v>
+        <v>507.0888470965632</v>
       </c>
       <c r="D3" t="n">
-        <v>554.9414230646187</v>
+        <v>376.9998797180435</v>
       </c>
       <c r="E3" t="n">
-        <v>418.4949321755064</v>
+        <v>240.5533888289312</v>
       </c>
       <c r="F3" t="n">
-        <v>294.0631260586382</v>
+        <v>116.121582712063</v>
       </c>
       <c r="G3" t="n">
-        <v>180.1754089245262</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="H3" t="n">
-        <v>91.87799252512717</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703876</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="J3" t="n">
-        <v>155.6057207567661</v>
+        <v>153.6133081183497</v>
       </c>
       <c r="K3" t="n">
-        <v>155.6057207567661</v>
+        <v>153.6133081183497</v>
       </c>
       <c r="L3" t="n">
-        <v>155.6057207567661</v>
+        <v>637.1793940166629</v>
       </c>
       <c r="M3" t="n">
-        <v>681.4286101526208</v>
+        <v>637.1793940166629</v>
       </c>
       <c r="N3" t="n">
-        <v>968.0301839896689</v>
+        <v>1138.346177012114</v>
       </c>
       <c r="O3" t="n">
-        <v>1484.55046658065</v>
+        <v>1384.929834659826</v>
       </c>
       <c r="P3" t="n">
-        <v>1890.171835297047</v>
+        <v>1790.551203376224</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.536926851938</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="R3" t="n">
-        <v>2100.619883750002</v>
+        <v>2000.999251829179</v>
       </c>
       <c r="S3" t="n">
-        <v>1965.689206649871</v>
+        <v>1866.068574729048</v>
       </c>
       <c r="T3" t="n">
-        <v>1788.70539484878</v>
+        <v>1689.084762927956</v>
       </c>
       <c r="U3" t="n">
-        <v>1578.642251527421</v>
+        <v>1479.021619606598</v>
       </c>
       <c r="V3" t="n">
-        <v>1356.102249898488</v>
+        <v>1256.481617977665</v>
       </c>
       <c r="W3" t="n">
-        <v>1356.102249898488</v>
+        <v>1026.364372110952</v>
       </c>
       <c r="X3" t="n">
-        <v>1166.7951722485</v>
+        <v>837.0572944609637</v>
       </c>
       <c r="Y3" t="n">
-        <v>987.4809553240075</v>
+        <v>657.743077536471</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>197.9692895755448</v>
+        <v>241.0817140065311</v>
       </c>
       <c r="C4" t="n">
-        <v>197.9692895755448</v>
+        <v>70.87659607252034</v>
       </c>
       <c r="D4" t="n">
-        <v>197.9692895755448</v>
+        <v>70.87659607252034</v>
       </c>
       <c r="E4" t="n">
-        <v>197.9692895755448</v>
+        <v>70.87659607252034</v>
       </c>
       <c r="F4" t="n">
-        <v>197.9692895755448</v>
+        <v>70.87659607252034</v>
       </c>
       <c r="G4" t="n">
-        <v>197.9692895755448</v>
+        <v>70.87659607252034</v>
       </c>
       <c r="H4" t="n">
-        <v>42.49073853703876</v>
+        <v>70.87659607252034</v>
       </c>
       <c r="I4" t="n">
-        <v>42.49073853703876</v>
+        <v>70.87659607252034</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703876</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469806</v>
+        <v>122.3333670085642</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207804</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R4" t="n">
-        <v>820.0367717111683</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="S4" t="n">
-        <v>617.2206878937177</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="T4" t="n">
-        <v>617.2206878937177</v>
+        <v>582.3253072409857</v>
       </c>
       <c r="U4" t="n">
-        <v>331.7818961356186</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="V4" t="n">
-        <v>331.7818961356186</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="W4" t="n">
-        <v>331.7818961356186</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="X4" t="n">
-        <v>331.7818961356186</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="Y4" t="n">
-        <v>331.7818961356186</v>
+        <v>296.8865154828866</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1569.750330035616</v>
+        <v>551.2091433733622</v>
       </c>
       <c r="C5" t="n">
-        <v>1176.574828538547</v>
+        <v>551.2091433733622</v>
       </c>
       <c r="D5" t="n">
-        <v>791.1336997552146</v>
+        <v>551.2091433733622</v>
       </c>
       <c r="E5" t="n">
-        <v>388.5501748717591</v>
+        <v>551.2091433733622</v>
       </c>
       <c r="F5" t="n">
-        <v>375.6961404421409</v>
+        <v>538.355108943744</v>
       </c>
       <c r="G5" t="n">
-        <v>366.5737889705481</v>
+        <v>125.1923534317471</v>
       </c>
       <c r="H5" t="n">
-        <v>42.49073853703876</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703876</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="J5" t="n">
-        <v>42.49073853703876</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="K5" t="n">
-        <v>401.4730945645006</v>
+        <v>544.1304548349123</v>
       </c>
       <c r="L5" t="n">
-        <v>894.7933862830293</v>
+        <v>990.7164596631933</v>
       </c>
       <c r="M5" t="n">
-        <v>1158.674436563755</v>
+        <v>1491.883242658644</v>
       </c>
       <c r="N5" t="n">
-        <v>1684.497325959609</v>
+        <v>1491.883242658644</v>
       </c>
       <c r="O5" t="n">
-        <v>2124.536926851938</v>
+        <v>1491.883242658644</v>
       </c>
       <c r="P5" t="n">
-        <v>2124.536926851938</v>
+        <v>1840.070734790166</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.536926851938</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="R5" t="n">
-        <v>2086.54401313746</v>
+        <v>1986.923381216636</v>
       </c>
       <c r="S5" t="n">
-        <v>2086.54401313746</v>
+        <v>1820.409826157687</v>
       </c>
       <c r="T5" t="n">
-        <v>2086.54401313746</v>
+        <v>1596.909223717103</v>
       </c>
       <c r="U5" t="n">
-        <v>1911.857139332098</v>
+        <v>1341.156494151702</v>
       </c>
       <c r="V5" t="n">
-        <v>1569.750330035616</v>
+        <v>1341.156494151702</v>
       </c>
       <c r="W5" t="n">
-        <v>1569.750330035616</v>
+        <v>1341.156494151702</v>
       </c>
       <c r="X5" t="n">
-        <v>1569.750330035616</v>
+        <v>951.703889084759</v>
       </c>
       <c r="Y5" t="n">
-        <v>1569.750330035616</v>
+        <v>951.703889084759</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>782.5511868174247</v>
+        <v>736.0639889622228</v>
       </c>
       <c r="C6" t="n">
-        <v>631.8969563775169</v>
+        <v>585.409758522315</v>
       </c>
       <c r="D6" t="n">
-        <v>561.1135238586423</v>
+        <v>455.3207911437953</v>
       </c>
       <c r="E6" t="n">
-        <v>424.66703296953</v>
+        <v>318.874300254683</v>
       </c>
       <c r="F6" t="n">
-        <v>300.2352268526618</v>
+        <v>194.4424941378148</v>
       </c>
       <c r="G6" t="n">
-        <v>180.1754089245262</v>
+        <v>74.38267620967927</v>
       </c>
       <c r="H6" t="n">
-        <v>91.87799252512717</v>
+        <v>74.38267620967927</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703876</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="J6" t="n">
-        <v>155.6057207567661</v>
+        <v>153.6133081183497</v>
       </c>
       <c r="K6" t="n">
-        <v>442.2072945938143</v>
+        <v>473.3524541805761</v>
       </c>
       <c r="L6" t="n">
-        <v>442.2072945938143</v>
+        <v>956.9185400788894</v>
       </c>
       <c r="M6" t="n">
-        <v>968.0301839896689</v>
+        <v>956.9185400788894</v>
       </c>
       <c r="N6" t="n">
-        <v>968.0301839896689</v>
+        <v>1458.08532307434</v>
       </c>
       <c r="O6" t="n">
-        <v>1484.55046658065</v>
+        <v>1619.294926214717</v>
       </c>
       <c r="P6" t="n">
-        <v>1890.171835297047</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.536926851938</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="R6" t="n">
-        <v>2100.619883750002</v>
+        <v>2000.999251829179</v>
       </c>
       <c r="S6" t="n">
-        <v>1965.689206649871</v>
+        <v>1866.068574729048</v>
       </c>
       <c r="T6" t="n">
-        <v>1965.689206649871</v>
+        <v>1689.084762927956</v>
       </c>
       <c r="U6" t="n">
-        <v>1755.626063328513</v>
+        <v>1479.021619606598</v>
       </c>
       <c r="V6" t="n">
-        <v>1533.08606169958</v>
+        <v>1256.481617977665</v>
       </c>
       <c r="W6" t="n">
-        <v>1302.968815832867</v>
+        <v>1256.481617977665</v>
       </c>
       <c r="X6" t="n">
-        <v>1113.661738182879</v>
+        <v>1067.174540327677</v>
       </c>
       <c r="Y6" t="n">
-        <v>934.347521258386</v>
+        <v>887.8603234031841</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>331.0637149384669</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="C7" t="n">
-        <v>331.0637149384669</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="D7" t="n">
-        <v>331.0637149384669</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="E7" t="n">
-        <v>331.0637149384669</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="F7" t="n">
-        <v>331.0637149384669</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="G7" t="n">
-        <v>331.0637149384669</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="H7" t="n">
-        <v>175.5851638999609</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="I7" t="n">
-        <v>42.49073853703876</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703876</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469806</v>
+        <v>122.3333670085642</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207804</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="S7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="T7" t="n">
-        <v>708.2187092468254</v>
+        <v>725.7660119861163</v>
       </c>
       <c r="U7" t="n">
-        <v>708.2187092468254</v>
+        <v>725.7660119861163</v>
       </c>
       <c r="V7" t="n">
-        <v>708.2187092468254</v>
+        <v>459.7866668069405</v>
       </c>
       <c r="W7" t="n">
-        <v>424.888307178003</v>
+        <v>459.7866668069405</v>
       </c>
       <c r="X7" t="n">
-        <v>331.0637149384669</v>
+        <v>225.7063445899236</v>
       </c>
       <c r="Y7" t="n">
-        <v>331.0637149384669</v>
+        <v>225.7063445899236</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1199.996335360124</v>
+        <v>1285.397995218369</v>
       </c>
       <c r="C8" t="n">
-        <v>1199.996335360124</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="D8" t="n">
-        <v>1199.996335360124</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="E8" t="n">
-        <v>797.412810476668</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="F8" t="n">
-        <v>784.5587760470498</v>
+        <v>879.3684592916816</v>
       </c>
       <c r="G8" t="n">
-        <v>371.396020535053</v>
+        <v>466.2057037796847</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>142.1226533461754</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4805,19 +4805,19 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>191.9627430103717</v>
+        <v>538.1002202902207</v>
       </c>
       <c r="L8" t="n">
-        <v>685.2830347289006</v>
+        <v>1031.420512008749</v>
       </c>
       <c r="M8" t="n">
-        <v>1231.283934773481</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="N8" t="n">
-        <v>1759.095218410943</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O8" t="n">
-        <v>2199.134819303272</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2327.655591362702</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.854909253719</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>1913.102179688318</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>1570.995370391836</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W8" t="n">
-        <v>1199.996335360124</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="X8" t="n">
-        <v>1199.996335360124</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="Y8" t="n">
-        <v>1199.996335360124</v>
+        <v>1285.397995218369</v>
       </c>
     </row>
     <row r="9">
@@ -4887,16 +4887,16 @@
         <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>623.6437572083089</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.141762214911</v>
+        <v>1065.6651033901</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1651.163108396702</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="P9" t="n">
         <v>2131.28341352229</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>676.1925020860581</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>505.9873841520472</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>505.9873841520472</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>505.9873841520472</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>348.6614493650202</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>180.4073954644657</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>180.4073954644657</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4987,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="X10" t="n">
-        <v>899.3045632694148</v>
+        <v>232.5209887928449</v>
       </c>
       <c r="Y10" t="n">
-        <v>676.1925020860581</v>
+        <v>232.5209887928449</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1871.211875180718</v>
+        <v>1320.171044252415</v>
       </c>
       <c r="C11" t="n">
-        <v>1572.977054970837</v>
+        <v>1021.936224042534</v>
       </c>
       <c r="D11" t="n">
-        <v>1282.476607474693</v>
+        <v>731.4357765463901</v>
       </c>
       <c r="E11" t="n">
-        <v>974.8337638784258</v>
+        <v>656.6116896536173</v>
       </c>
       <c r="F11" t="n">
-        <v>652.8800066955919</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="G11" t="n">
         <v>334.6579324707834</v>
@@ -5069,22 +5069,22 @@
         <v>3034.383511434015</v>
       </c>
       <c r="T11" t="n">
-        <v>2933.639939455105</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U11" t="n">
-        <v>2772.827891176892</v>
+        <v>2745.011542002407</v>
       </c>
       <c r="V11" t="n">
-        <v>2772.827891176892</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W11" t="n">
-        <v>2772.827891176892</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X11" t="n">
-        <v>2478.315967397137</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y11" t="n">
-        <v>2176.765939604927</v>
+        <v>1625.725108676624</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5121,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>865.4243596646552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M12" t="n">
-        <v>1493.196009291336</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.973980501895</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551004</v>
+        <v>493.0843669550998</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082779</v>
+        <v>417.8199303082774</v>
       </c>
       <c r="D13" t="n">
-        <v>357.127498497981</v>
+        <v>357.1274984979805</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443719</v>
+        <v>296.509367644372</v>
       </c>
       <c r="F13" t="n">
-        <v>234.124114144533</v>
+        <v>234.1241141445333</v>
       </c>
       <c r="G13" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311671</v>
       </c>
       <c r="H13" t="n">
-        <v>100.2728717798493</v>
+        <v>100.2728717798494</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5215,7 +5215,7 @@
         <v>1368.802215879041</v>
       </c>
       <c r="P13" t="n">
-        <v>1581.729743385193</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q13" t="n">
         <v>1678.203301484817</v>
@@ -5227,22 +5227,22 @@
         <v>1541.36759087432</v>
       </c>
       <c r="T13" t="n">
-        <v>1400.589220329743</v>
+        <v>1400.589220329742</v>
       </c>
       <c r="U13" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V13" t="n">
         <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852103</v>
+        <v>850.66272518521</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553817</v>
+        <v>711.5230842553814</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592134</v>
+        <v>583.351704359213</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1614.68296803217</v>
+        <v>1320.171044252417</v>
       </c>
       <c r="C14" t="n">
-        <v>1316.448147822289</v>
+        <v>1021.936224042536</v>
       </c>
       <c r="D14" t="n">
-        <v>1025.947700326145</v>
+        <v>745.6913947321048</v>
       </c>
       <c r="E14" t="n">
-        <v>974.8337638784258</v>
+        <v>745.6913947321048</v>
       </c>
       <c r="F14" t="n">
-        <v>652.8800066955919</v>
+        <v>423.7376375492709</v>
       </c>
       <c r="G14" t="n">
-        <v>334.6579324707834</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="H14" t="n">
         <v>105.5155633244624</v>
@@ -5312,16 +5312,16 @@
         <v>2745.011542002408</v>
       </c>
       <c r="V14" t="n">
-        <v>2497.845413993114</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W14" t="n">
         <v>2221.78706024859</v>
       </c>
       <c r="X14" t="n">
-        <v>2221.78706024859</v>
+        <v>1927.275136468836</v>
       </c>
       <c r="Y14" t="n">
-        <v>1920.237032456379</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="15">
@@ -5355,16 +5355,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>346.0196676966397</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>973.7913173233209</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
         <v>1629.56928853388</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551004</v>
+        <v>493.0843669551003</v>
       </c>
       <c r="C16" t="n">
-        <v>417.819930308278</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D16" t="n">
-        <v>357.1274984979811</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443719</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445332</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G16" t="n">
-        <v>160.8107415311671</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H16" t="n">
-        <v>100.2728717798492</v>
+        <v>100.2728717798493</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3967468362514</v>
+        <v>125.3967468362513</v>
       </c>
       <c r="K16" t="n">
-        <v>300.283149675766</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791391</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M16" t="n">
-        <v>836.8050913469764</v>
+        <v>836.8050913469768</v>
       </c>
       <c r="N16" t="n">
         <v>1113.046087107759</v>
@@ -5464,7 +5464,7 @@
         <v>1541.367590874319</v>
       </c>
       <c r="T16" t="n">
-        <v>1400.589220329741</v>
+        <v>1400.589220329742</v>
       </c>
       <c r="U16" t="n">
         <v>1210.091109858831</v>
@@ -5473,13 +5473,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.66272518521</v>
+        <v>850.6627251852098</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553816</v>
+        <v>711.5230842553813</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592134</v>
+        <v>583.3517043592133</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
         <v>1352.560722599516</v>
@@ -5498,16 +5498,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G17" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292423</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5546,19 +5546,19 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>1606.310991511064</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N18" t="n">
-        <v>2146.089571124861</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5677,46 +5677,46 @@
         <v>273.0105384364859</v>
       </c>
       <c r="L19" t="n">
-        <v>437.1381783102856</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567345</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879436</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296516</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5735,25 +5735,25 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292424</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358934</v>
@@ -5777,7 +5777,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5835,10 +5835,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M21" t="n">
-        <v>1223.947919817482</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5884,52 +5884,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>67.69877031229885</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>278.5901810446693</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>442.7178209184691</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>629.0093992567331</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879423</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296503</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H23" t="n">
         <v>68.77950792924223</v>
@@ -6066,22 +6066,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L24" t="n">
-        <v>862.5399502876207</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M24" t="n">
-        <v>1490.311599914302</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N24" t="n">
-        <v>2146.089571124861</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O24" t="n">
-        <v>2146.089571124861</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P24" t="n">
         <v>2146.089571124861</v>
@@ -6148,13 +6148,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L25" t="n">
-        <v>313.661451296041</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M25" t="n">
-        <v>629.0093992567336</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N25" t="n">
         <v>812.1990332879427</v>
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
@@ -6221,55 +6221,55 @@
         <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134135</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1888.204925386532</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N26" t="n">
-        <v>2416.016209023994</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O26" t="n">
-        <v>2949.107171645896</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P26" t="n">
-        <v>3390.346025506991</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q26" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377514</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605753</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452358</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
         <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640573</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
@@ -6312,10 +6312,10 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>989.7850731278173</v>
+        <v>1095.935962441339</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="O27" t="n">
         <v>1751.713933651898</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.3300981985348</v>
       </c>
       <c r="C28" t="n">
-        <v>429.065661551713</v>
+        <v>429.0656615517124</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414161</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
         <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796859</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225739</v>
       </c>
       <c r="M28" t="n">
         <v>848.0508225904113</v>
@@ -6406,7 +6406,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S28" t="n">
         <v>1552.613322117754</v>
@@ -6418,16 +6418,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286445</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988159</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026476</v>
       </c>
     </row>
     <row r="29">
@@ -6437,64 +6437,64 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218606</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390267</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142183</v>
       </c>
       <c r="H29" t="n">
-        <v>116.7612945678971</v>
+        <v>116.7612945678972</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859516</v>
       </c>
       <c r="K29" t="n">
-        <v>670.0483496134135</v>
+        <v>670.0483496134134</v>
       </c>
       <c r="L29" t="n">
-        <v>1193.338156614365</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1832.390418388519</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2453.253063755555</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O29" t="n">
-        <v>2986.344026377456</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377514</v>
       </c>
       <c r="S29" t="n">
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
         <v>3060.13197616485</v>
@@ -6506,7 +6506,7 @@
         <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6537,25 @@
         <v>122.7521129356387</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>1504.441740534771</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="P30" t="n">
         <v>2157.335302368295</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985345</v>
+        <v>504.3300981985354</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517122</v>
+        <v>429.0656615517129</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414155</v>
+        <v>368.3732297414159</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878064</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796859</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192008</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225736</v>
+        <v>568.7078825225752</v>
       </c>
       <c r="M31" t="n">
-        <v>848.050822590411</v>
+        <v>848.0508225904125</v>
       </c>
       <c r="N31" t="n">
-        <v>1124.291818351193</v>
+        <v>1124.291818351195</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628628</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648018</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T31" t="n">
-        <v>1411.834951573176</v>
+        <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286443</v>
+        <v>861.9084564286453</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988158</v>
+        <v>722.7688154988167</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026475</v>
+        <v>594.5974356026484</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.367013084637</v>
+        <v>1719.814764781098</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985472</v>
+        <v>1443.841115634093</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600043</v>
+        <v>1175.601839200825</v>
       </c>
       <c r="E32" t="n">
-        <v>918.246771114492</v>
+        <v>890.2201666674341</v>
       </c>
       <c r="F32" t="n">
-        <v>612.045637042374</v>
+        <v>590.5275805474764</v>
       </c>
       <c r="G32" t="n">
-        <v>309.5761859282813</v>
+        <v>294.5666773855442</v>
       </c>
       <c r="H32" t="n">
-        <v>96.18643989267645</v>
+        <v>87.68547930209951</v>
       </c>
       <c r="I32" t="n">
-        <v>68.54262738304543</v>
+        <v>66.55021474462896</v>
       </c>
       <c r="J32" t="n">
-        <v>321.6829079322594</v>
+        <v>211.1999876534571</v>
       </c>
       <c r="K32" t="n">
-        <v>680.6652639597212</v>
+        <v>570.1823436809188</v>
       </c>
       <c r="L32" t="n">
-        <v>1173.98555567825</v>
+        <v>1063.502635399448</v>
       </c>
       <c r="M32" t="n">
-        <v>1817.756924709624</v>
+        <v>1609.503535444028</v>
       </c>
       <c r="N32" t="n">
-        <v>2345.568208347086</v>
+        <v>2137.31481908149</v>
       </c>
       <c r="O32" t="n">
-        <v>2785.607809239415</v>
+        <v>2692.223955462117</v>
       </c>
       <c r="P32" t="n">
-        <v>3133.795301370937</v>
+        <v>3040.411447593639</v>
       </c>
       <c r="Q32" t="n">
-        <v>3427.131369152271</v>
+        <v>3327.510737231448</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152271</v>
+        <v>3327.510737231448</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.311118491226</v>
+        <v>3278.199034522563</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.503820448547</v>
+        <v>3171.900284432044</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.44439528105</v>
+        <v>3033.349407216707</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.030890382472</v>
+        <v>2808.44445027029</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748664</v>
+        <v>2554.647267588643</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079625</v>
+        <v>2282.396514871764</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.16845439813</v>
+        <v>2003.10765814243</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230764</v>
+        <v>865.9161978846599</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831686</v>
+        <v>715.2619674447521</v>
       </c>
       <c r="D33" t="n">
-        <v>587.1654127046489</v>
+        <v>585.1730000662325</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155366</v>
+        <v>448.7265091771202</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986685</v>
+        <v>324.294703060252</v>
       </c>
       <c r="G33" t="n">
-        <v>206.2272977705329</v>
+        <v>204.2348851321165</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711338</v>
+        <v>115.9374687327174</v>
       </c>
       <c r="I33" t="n">
-        <v>68.54262738304543</v>
+        <v>66.55021474462896</v>
       </c>
       <c r="J33" t="n">
-        <v>181.6576096027728</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="K33" t="n">
-        <v>501.3967556649993</v>
+        <v>499.4043430265828</v>
       </c>
       <c r="L33" t="n">
-        <v>984.9628415633125</v>
+        <v>499.4043430265828</v>
       </c>
       <c r="M33" t="n">
-        <v>984.9628415633125</v>
+        <v>1127.175992653264</v>
       </c>
       <c r="N33" t="n">
-        <v>1230.371419496412</v>
+        <v>1782.953963863823</v>
       </c>
       <c r="O33" t="n">
-        <v>1746.891702087393</v>
+        <v>1782.953963863823</v>
       </c>
       <c r="P33" t="n">
-        <v>2152.513070803791</v>
+        <v>2188.57533258022</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766816</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.019161888531</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.2395048590195</v>
+        <v>341.6872565554797</v>
       </c>
       <c r="C34" t="n">
-        <v>329.7276913229128</v>
+        <v>288.6839909715336</v>
       </c>
       <c r="D34" t="n">
-        <v>284.7878826233318</v>
+        <v>250.252730224113</v>
       </c>
       <c r="E34" t="n">
-        <v>239.9223748804384</v>
+        <v>211.8957704333801</v>
       </c>
       <c r="F34" t="n">
-        <v>193.2897444913156</v>
+        <v>171.7716879964177</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886652</v>
+        <v>120.7194864459278</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806338</v>
+        <v>82.44278775748644</v>
       </c>
       <c r="I34" t="n">
-        <v>68.54262738304543</v>
+        <v>66.55021474462896</v>
       </c>
       <c r="J34" t="n">
-        <v>147.2593924259938</v>
+        <v>66.55021474462896</v>
       </c>
       <c r="K34" t="n">
-        <v>337.5849411763215</v>
+        <v>148.3852558545708</v>
       </c>
       <c r="L34" t="n">
-        <v>560.1194745537113</v>
+        <v>312.5128957283706</v>
       </c>
       <c r="M34" t="n">
-        <v>854.9015605323611</v>
+        <v>613.674009554933</v>
       </c>
       <c r="N34" t="n">
-        <v>1038.09119456357</v>
+        <v>810.7134513543754</v>
       </c>
       <c r="O34" t="n">
-        <v>1200.795961605278</v>
+        <v>1088.287753884382</v>
       </c>
       <c r="P34" t="n">
-        <v>1429.162635022243</v>
+        <v>1323.033455149259</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.584831392294</v>
+        <v>1326.45565151931</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.377146422775</v>
+        <v>1319.756514501951</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.254367003228</v>
+        <v>1234.142283034565</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.228619569367</v>
+        <v>1115.625083552864</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209172</v>
+        <v>947.3881441448295</v>
       </c>
       <c r="V34" t="n">
-        <v>872.1970914279001</v>
+        <v>798.6106513157184</v>
       </c>
       <c r="W34" t="n">
-        <v>699.5599937569818</v>
+        <v>632.4821015969607</v>
       </c>
       <c r="X34" t="n">
-        <v>576.1729759378691</v>
+        <v>515.6036317300084</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.7542191524166</v>
+        <v>409.6934228967164</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H35" t="n">
         <v>68.77950792924223</v>
@@ -6968,7 +6968,7 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573994</v>
@@ -6977,10 +6977,10 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="36">
@@ -7023,7 +7023,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7099,22 +7099,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>437.1381783102856</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M37" t="n">
-        <v>623.4297566485496</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N37" t="n">
-        <v>806.6193906797589</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O37" t="n">
-        <v>969.3241577214669</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P37" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7199,7 +7199,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7208,10 +7208,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M39" t="n">
-        <v>978.5393418843826</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7333,25 +7333,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>270.9691711012521</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>435.0968109750519</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>621.3883893133159</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>804.578023344525</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>967.282790386233</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P40" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q40" t="n">
-        <v>1090.581152532862</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1853.707880260103</v>
+        <v>1340.175609875976</v>
       </c>
       <c r="C41" t="n">
-        <v>1557.973630753167</v>
+        <v>1044.441360369039</v>
       </c>
       <c r="D41" t="n">
-        <v>1269.973753959968</v>
+        <v>1043.331955516592</v>
       </c>
       <c r="E41" t="n">
-        <v>964.8314810666461</v>
+        <v>738.1896826232698</v>
       </c>
       <c r="F41" t="n">
-        <v>645.3782945867572</v>
+        <v>418.7364961433809</v>
       </c>
       <c r="G41" t="n">
-        <v>329.6567910648937</v>
+        <v>103.0149926215174</v>
       </c>
       <c r="H41" t="n">
         <v>103.0149926215174</v>
@@ -7442,19 +7442,19 @@
         <v>2910.82473168651</v>
       </c>
       <c r="U41" t="n">
-        <v>2752.513254111243</v>
+        <v>2752.513254111242</v>
       </c>
       <c r="V41" t="n">
-        <v>2752.513254111243</v>
+        <v>2507.847696804893</v>
       </c>
       <c r="W41" t="n">
-        <v>2478.955471069663</v>
+        <v>2234.289913763314</v>
       </c>
       <c r="X41" t="n">
-        <v>2186.944117992854</v>
+        <v>1942.278560686504</v>
       </c>
       <c r="Y41" t="n">
-        <v>1887.894660903588</v>
+        <v>1643.229103597239</v>
       </c>
     </row>
     <row r="42">
@@ -7491,13 +7491,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>381.858273766342</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="L42" t="n">
-        <v>865.4243596646552</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M42" t="n">
-        <v>865.4243596646552</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7543,55 +7543,55 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>475.5803720344855</v>
+        <v>475.5803720344856</v>
       </c>
       <c r="C43" t="n">
-        <v>402.816506090608</v>
+        <v>402.8165060906081</v>
       </c>
       <c r="D43" t="n">
-        <v>344.6246449832561</v>
+        <v>344.6246449832562</v>
       </c>
       <c r="E43" t="n">
-        <v>286.5070848325919</v>
+        <v>286.507084832592</v>
       </c>
       <c r="F43" t="n">
-        <v>226.6224020356981</v>
+        <v>226.6224020356982</v>
       </c>
       <c r="G43" t="n">
-        <v>155.809600125277</v>
+        <v>155.8096001252771</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77230107690431</v>
+        <v>97.77230107690434</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>127.8475561822077</v>
+        <v>68.23195016743742</v>
       </c>
       <c r="K43" t="n">
-        <v>305.1847683676792</v>
+        <v>245.5691623529089</v>
       </c>
       <c r="L43" t="n">
-        <v>564.8145793170087</v>
+        <v>505.1989733022383</v>
       </c>
       <c r="M43" t="n">
-        <v>846.6083287308024</v>
+        <v>786.9927227160319</v>
       </c>
       <c r="N43" t="n">
-        <v>1125.300133837541</v>
+        <v>1065.684527822771</v>
       </c>
       <c r="O43" t="n">
-        <v>1323.891465940008</v>
+        <v>1323.891465940009</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.269802792116</v>
+        <v>1539.269802792117</v>
       </c>
       <c r="Q43" t="n">
-        <v>1638.194170237697</v>
+        <v>1638.194170237698</v>
       </c>
       <c r="R43" t="n">
-        <v>1611.734432860407</v>
+        <v>1611.734432860408</v>
       </c>
       <c r="S43" t="n">
         <v>1506.35960103309</v>
@@ -7603,16 +7603,16 @@
         <v>1180.084261423492</v>
       </c>
       <c r="V43" t="n">
-        <v>1011.546168234449</v>
+        <v>1011.54616823445</v>
       </c>
       <c r="W43" t="n">
-        <v>825.6570181557603</v>
+        <v>825.6570181557606</v>
       </c>
       <c r="X43" t="n">
-        <v>689.0179479288768</v>
+        <v>689.017947928877</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.3471387356534</v>
+        <v>563.3471387356536</v>
       </c>
     </row>
     <row r="44">
@@ -7628,19 +7628,19 @@
         <v>1044.44136036904</v>
       </c>
       <c r="D44" t="n">
-        <v>950.520567480079</v>
+        <v>1002.43609059919</v>
       </c>
       <c r="E44" t="n">
-        <v>645.3782945867569</v>
+        <v>697.2938177058679</v>
       </c>
       <c r="F44" t="n">
-        <v>645.3782945867569</v>
+        <v>377.8406312259791</v>
       </c>
       <c r="G44" t="n">
-        <v>329.6567910648934</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
-        <v>103.0149926215174</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7725,22 +7725,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L45" t="n">
-        <v>865.4243596646552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M45" t="n">
-        <v>1493.196009291336</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N45" t="n">
-        <v>1493.196009291336</v>
+        <v>1458.783730761083</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>1975.304013352064</v>
       </c>
       <c r="P45" t="n">
         <v>2146.089571124861</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>475.5803720344853</v>
+        <v>475.5803720344856</v>
       </c>
       <c r="C46" t="n">
-        <v>402.8165060906078</v>
+        <v>402.8165060906081</v>
       </c>
       <c r="D46" t="n">
-        <v>344.6246449832559</v>
+        <v>344.6246449832562</v>
       </c>
       <c r="E46" t="n">
-        <v>286.5070848325918</v>
+        <v>286.507084832592</v>
       </c>
       <c r="F46" t="n">
-        <v>226.6224020356981</v>
+        <v>226.6224020356982</v>
       </c>
       <c r="G46" t="n">
-        <v>155.809600125277</v>
+        <v>155.8096001252771</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7723010769043</v>
+        <v>97.77230107690434</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>68.23195016743657</v>
+        <v>127.8475561822077</v>
       </c>
       <c r="K46" t="n">
-        <v>245.5691623529081</v>
+        <v>305.1847683676792</v>
       </c>
       <c r="L46" t="n">
-        <v>505.1989733022376</v>
+        <v>564.8145793170086</v>
       </c>
       <c r="M46" t="n">
-        <v>786.9927227160313</v>
+        <v>846.6083287308022</v>
       </c>
       <c r="N46" t="n">
-        <v>1065.68452782277</v>
+        <v>1065.684527822771</v>
       </c>
       <c r="O46" t="n">
-        <v>1323.891465940008</v>
+        <v>1323.891465940009</v>
       </c>
       <c r="P46" t="n">
-        <v>1539.269802792116</v>
+        <v>1539.269802792117</v>
       </c>
       <c r="Q46" t="n">
-        <v>1638.194170237697</v>
+        <v>1638.194170237698</v>
       </c>
       <c r="R46" t="n">
-        <v>1611.734432860407</v>
+        <v>1611.734432860408</v>
       </c>
       <c r="S46" t="n">
         <v>1506.35960103309</v>
       </c>
       <c r="T46" t="n">
-        <v>1368.081801191457</v>
+        <v>1368.081801191458</v>
       </c>
       <c r="U46" t="n">
         <v>1180.084261423492</v>
       </c>
       <c r="V46" t="n">
-        <v>1011.546168234449</v>
+        <v>1011.54616823445</v>
       </c>
       <c r="W46" t="n">
-        <v>825.6570181557601</v>
+        <v>825.6570181557606</v>
       </c>
       <c r="X46" t="n">
-        <v>689.0179479288765</v>
+        <v>689.017947928877</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.3471387356533</v>
+        <v>563.3471387356536</v>
       </c>
     </row>
   </sheetData>
@@ -7976,22 +7976,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>333.8590351723074</v>
+        <v>200.6887348821</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>680.8592833107118</v>
+        <v>655.9541253305058</v>
       </c>
       <c r="N2" t="n">
-        <v>680.2527230507686</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
@@ -8061,16 +8061,16 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>623.5213537622964</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>374.8686520835082</v>
+        <v>591.6011865869452</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>341.7619605532452</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>604.3451443045129</v>
       </c>
       <c r="M5" t="n">
-        <v>416.2715670328035</v>
+        <v>655.9541253305058</v>
       </c>
       <c r="N5" t="n">
-        <v>680.2527230507686</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8295,25 +8295,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>379.0934745626749</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>623.5213537622964</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>591.6011865869452</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>255.5255418589666</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8453,7 +8453,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>492.6922186134283</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8462,13 +8462,13 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>318.4970894367924</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8535,19 +8535,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>234.9862648617782</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>577.6575640662504</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
         <v>327.7205688679246</v>
@@ -8699,7 +8699,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N11" t="n">
-        <v>682.2612020826954</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O11" t="n">
         <v>594.0482827698827</v>
@@ -8769,25 +8769,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>624.8237719316268</v>
       </c>
       <c r="O12" t="n">
-        <v>326.5064297756122</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,19 +9003,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>376.8285690715891</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>108.8653421701425</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9240,7 +9240,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9249,19 +9249,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>438.5811111539143</v>
       </c>
       <c r="N18" t="n">
-        <v>630.6030013529515</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9483,13 +9483,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>163.9964000092958</v>
       </c>
       <c r="M21" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9714,13 +9714,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>461.3398360504045</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
         <v>726.4998994499999</v>
@@ -9729,10 +9729,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>87.08336481931465</v>
+        <v>373.8515870339854</v>
       </c>
       <c r="Q24" t="n">
         <v>327.7205688679246</v>
@@ -9960,13 +9960,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>199.6102425680203</v>
       </c>
       <c r="N27" t="n">
-        <v>333.2595653118427</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,16 +10197,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>340.274574506988</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>744.8605591506555</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
@@ -10431,22 +10431,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118432</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>289.2815038024237</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10671,10 +10671,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10899,19 +10899,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>517.3131487114046</v>
       </c>
       <c r="N39" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -10920,7 +10920,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11139,7 +11139,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>112.3087888732267</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
@@ -11148,7 +11148,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11373,25 +11373,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>342.4574509263909</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>259.5940292362812</v>
       </c>
       <c r="Q45" t="n">
         <v>327.7205688679246</v>
@@ -23264,13 +23264,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>230.4905691364593</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,16 +23309,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>27.53818568273967</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>244.6944667292003</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>273.297770207079</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>8.029132914089132e-13</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23498,10 +23498,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>14.11306200385592</v>
       </c>
       <c r="E14" t="n">
-        <v>253.9636180770626</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>291.5668045419573</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -25625,13 +25625,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1780459470026</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>284.0215672213448</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>224.3753804589423</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25685,7 +25685,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>242.2189017332848</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25868,22 +25868,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>192.1382930651963</v>
+        <v>243.5346609531164</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>316.25865461509</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>224.3753804589423</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>40.48690626822786</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>681349.8384909119</v>
+        <v>680447.5170702714</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>681349.8384909119</v>
+        <v>680447.5170702714</v>
       </c>
     </row>
     <row r="4">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>613129.4055174136</v>
+      </c>
+      <c r="C2" t="n">
+        <v>613129.4055174134</v>
+      </c>
+      <c r="D2" t="n">
         <v>613129.4055174132</v>
       </c>
-      <c r="C2" t="n">
-        <v>613129.4055174133</v>
-      </c>
-      <c r="D2" t="n">
-        <v>613129.4055174135</v>
-      </c>
       <c r="E2" t="n">
-        <v>576218.8171230098</v>
+        <v>576218.8171230101</v>
       </c>
       <c r="F2" t="n">
-        <v>576218.8171230097</v>
+        <v>576218.8171230102</v>
       </c>
       <c r="G2" t="n">
         <v>613129.4055174127</v>
       </c>
       <c r="H2" t="n">
-        <v>613129.4055174126</v>
+        <v>613129.4055174128</v>
       </c>
       <c r="I2" t="n">
         <v>613129.4055174126</v>
       </c>
       <c r="J2" t="n">
-        <v>613129.4055174129</v>
+        <v>613129.405517413</v>
       </c>
       <c r="K2" t="n">
-        <v>613129.405517413</v>
+        <v>613129.4055174133</v>
       </c>
       <c r="L2" t="n">
         <v>613129.4055174139</v>
       </c>
       <c r="M2" t="n">
+        <v>613129.4055174128</v>
+      </c>
+      <c r="N2" t="n">
         <v>613129.4055174127</v>
-      </c>
-      <c r="N2" t="n">
-        <v>613129.4055174128</v>
       </c>
       <c r="O2" t="n">
         <v>578731.2680373654</v>
       </c>
       <c r="P2" t="n">
-        <v>578731.2680373657</v>
+        <v>578731.2680373654</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.2971343505</v>
+        <v>169649.00587655</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.12238602675</v>
+        <v>26460.41160941811</v>
       </c>
       <c r="E3" t="n">
         <v>130452.9311377121</v>
       </c>
       <c r="F3" t="n">
-        <v>1.13686837721616e-11</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301429</v>
+        <v>29094.95587301434</v>
       </c>
       <c r="H3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469664</v>
+        <v>215329.5897923934</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.03337670122</v>
+        <v>46725.80335481238</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.27693436858</v>
+        <v>43782.97194555662</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>18983.5598301569</v>
+        <v>18983.55983015685</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>202745.5458432094</v>
+        <v>208555.398698792</v>
       </c>
       <c r="C4" t="n">
-        <v>202745.5458432094</v>
+        <v>208555.398698792</v>
       </c>
       <c r="D4" t="n">
         <v>188683.9728110359</v>
@@ -26445,7 +26445,7 @@
         <v>161306.7834561731</v>
       </c>
       <c r="L4" t="n">
-        <v>160983.928801512</v>
+        <v>160850.5341924572</v>
       </c>
       <c r="M4" t="n">
         <v>160556.29099179</v>
@@ -26454,10 +26454,10 @@
         <v>160556.29099179</v>
       </c>
       <c r="O4" t="n">
-        <v>137626.5862472995</v>
+        <v>137626.5862472994</v>
       </c>
       <c r="P4" t="n">
-        <v>137626.5862472995</v>
+        <v>137626.5862472994</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.56128814946</v>
+        <v>64406.32768295293</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.56128814946</v>
+        <v>64406.32768295293</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,7 +26482,7 @@
         <v>55112.2895089091</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
         <v>58169.76931551966</v>
@@ -26494,10 +26494,10 @@
         <v>63659.04525391951</v>
       </c>
       <c r="K5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391951</v>
       </c>
       <c r="L5" t="n">
-        <v>61305.21346446765</v>
+        <v>60332.67530588341</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166468.0012517038</v>
+        <v>170518.6732591187</v>
       </c>
       <c r="C6" t="n">
-        <v>344463.2983860544</v>
+        <v>340167.6791356685</v>
       </c>
       <c r="D6" t="n">
-        <v>336135.8530431776</v>
+        <v>328399.563819786</v>
       </c>
       <c r="E6" t="n">
-        <v>254701.6261280805</v>
+        <v>254593.0655739796</v>
       </c>
       <c r="F6" t="n">
-        <v>385154.5572657926</v>
+        <v>385045.9967116919</v>
       </c>
       <c r="G6" t="n">
-        <v>365308.3893370888</v>
+        <v>365308.3893370887</v>
       </c>
       <c r="H6" t="n">
-        <v>394403.3452101028</v>
+        <v>394403.3452101031</v>
       </c>
       <c r="I6" t="n">
         <v>394403.3452101029</v>
       </c>
       <c r="J6" t="n">
-        <v>166317.7018603539</v>
+        <v>172833.987014927</v>
       </c>
       <c r="K6" t="n">
-        <v>388163.5768073204</v>
+        <v>388163.5768073207</v>
       </c>
       <c r="L6" t="n">
-        <v>349269.229874733</v>
+        <v>345220.3926642608</v>
       </c>
       <c r="M6" t="n">
-        <v>351672.0682757345</v>
+        <v>350620.3732645466</v>
       </c>
       <c r="N6" t="n">
-        <v>394403.3452101031</v>
+        <v>394403.345210103</v>
       </c>
       <c r="O6" t="n">
-        <v>366800.7141773583</v>
+        <v>366699.54318477</v>
       </c>
       <c r="P6" t="n">
-        <v>385784.2740075155</v>
+        <v>385683.1030149268</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="F2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="L2" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>96.46683947023199</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="P2" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023196</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129845</v>
+        <v>506.2290737327786</v>
       </c>
       <c r="C4" t="n">
-        <v>531.1342317129845</v>
+        <v>506.2290737327786</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,13 +26811,13 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443784</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443784</v>
       </c>
       <c r="L4" t="n">
-        <v>856.7828422880677</v>
+        <v>831.877684307862</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="F2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126787</v>
+        <v>36.36869484126792</v>
       </c>
       <c r="H2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304855</v>
+        <v>57.6225796330485</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.96379172087653</v>
+        <v>58.40725419351547</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165935</v>
+        <v>14.33013548902041</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72944978769613</v>
+        <v>23.72944978769607</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129845</v>
+        <v>506.2290737327786</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455631057</v>
+        <v>85.18305253651647</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.7058722559186</v>
+        <v>646.8007142757129</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.7832240455254</v>
+        <v>129.6883820257311</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126787</v>
+        <v>36.36869484126792</v>
       </c>
       <c r="M2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304855</v>
+        <v>57.6225796330485</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.1342317129845</v>
+        <v>506.2290737327786</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455631057</v>
+        <v>85.18305253651647</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27382,19 +27382,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>135.6625088148666</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>160.9220412857364</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27470,13 +27470,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6.110379786083357</v>
+        <v>43.99219550354786</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27518,7 +27518,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50.88145800991518</v>
+        <v>128.1091850427963</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
@@ -27552,13 +27552,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,10 +27585,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>236.9951326713806</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>80.25519720243923</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27698,7 +27698,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>58.7124795110487</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27710,10 +27710,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>15.34787464026111</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,7 +27746,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -27789,10 +27789,10 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27825,19 +27825,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>19.34431822393046</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>138.853172677706</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27853,13 +27853,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>43.0921593262744</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>64.05292112828434</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
@@ -28020,16 +28020,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -28059,25 +28059,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>220.1322412032064</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>182.7786439149022</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
     </row>
     <row r="14">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="18">
@@ -28719,46 +28719,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>5.636002634530115</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="20">
@@ -28980,31 +28980,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>35.71049010668768</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29220,16 +29220,16 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L25" t="n">
-        <v>5.636002634529092</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>86.65052755599527</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431648</v>
+        <v>30.27223765901317</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>30.27223765901306</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901317</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431749</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
     </row>
     <row r="32">
@@ -29746,31 +29746,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="C32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="D32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="E32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="F32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="G32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="H32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="I32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="J32" t="n">
-        <v>109.5863713539251</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -29779,43 +29779,43 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>98.75804948160953</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>116.029833826564</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>109.5863713539251</v>
+        <v>103.2865954513736</v>
       </c>
       <c r="R32" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="T32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="U32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="V32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="W32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="X32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="C34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="D34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="E34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="F34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="G34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="H34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="I34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5863713539251</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>109.5863713539251</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>58.99686212483832</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>13.98970481639711</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>116.029833826564</v>
       </c>
       <c r="P34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="S34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="T34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="U34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="V34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="W34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="X34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.029833826564</v>
       </c>
     </row>
     <row r="35">
@@ -30171,25 +30171,25 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
+        <v>5.636002634529035</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30405,19 +30405,19 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>128.2979821082774</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>5.63600263452858</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.46683947023199</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="C41" t="n">
-        <v>96.46683947023199</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="D41" t="n">
-        <v>96.46683947023199</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="E41" t="n">
-        <v>96.46683947023199</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="F41" t="n">
-        <v>96.46683947023199</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="G41" t="n">
-        <v>96.46683947023199</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="H41" t="n">
-        <v>96.46683947023199</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="I41" t="n">
-        <v>96.46683947023199</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>96.46683947023199</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="T41" t="n">
-        <v>96.46683947023199</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="U41" t="n">
-        <v>96.46683947023199</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="V41" t="n">
-        <v>96.46683947023199</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="W41" t="n">
-        <v>96.46683947023199</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="X41" t="n">
-        <v>96.46683947023199</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.46683947023199</v>
+        <v>96.46683947023196</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.46683947023199</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="C43" t="n">
-        <v>96.46683947023199</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="D43" t="n">
-        <v>96.46683947023199</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="E43" t="n">
-        <v>96.46683947023199</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="F43" t="n">
-        <v>96.46683947023199</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="G43" t="n">
-        <v>96.46683947023199</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="H43" t="n">
-        <v>96.46683947023199</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="I43" t="n">
-        <v>96.46683947023199</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="J43" t="n">
-        <v>96.46683947023199</v>
+        <v>36.24905561692866</v>
       </c>
       <c r="K43" t="n">
-        <v>96.46683947023199</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="L43" t="n">
-        <v>96.46683947023199</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="M43" t="n">
-        <v>96.46683947023199</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="N43" t="n">
-        <v>96.46683947023199</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="O43" t="n">
-        <v>36.24905561692805</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="P43" t="n">
-        <v>96.46683947023199</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.46683947023199</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="R43" t="n">
-        <v>96.46683947023199</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="S43" t="n">
-        <v>96.46683947023199</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="T43" t="n">
-        <v>96.46683947023199</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="U43" t="n">
-        <v>96.46683947023199</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="V43" t="n">
-        <v>96.46683947023199</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="W43" t="n">
-        <v>96.46683947023199</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="X43" t="n">
-        <v>96.46683947023199</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.46683947023199</v>
+        <v>96.46683947023196</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="C44" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="D44" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="E44" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="F44" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="G44" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="H44" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="I44" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30730,7 +30730,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="T44" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="U44" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="V44" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="W44" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="X44" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="Y44" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023196</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="C46" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="D46" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="E46" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="F46" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="G46" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="H46" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="I46" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="J46" t="n">
-        <v>36.2490556169278</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="K46" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="L46" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="M46" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="N46" t="n">
-        <v>96.466839470232</v>
+        <v>36.24905561692873</v>
       </c>
       <c r="O46" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="P46" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="R46" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="S46" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="T46" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="U46" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="V46" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="W46" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="X46" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023196</v>
       </c>
     </row>
   </sheetData>
@@ -34696,22 +34696,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>190.80063199307</v>
+        <v>57.63033170286264</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>531.1342317129845</v>
+        <v>506.2290737327786</v>
       </c>
       <c r="N2" t="n">
-        <v>531.1342317129845</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
@@ -34781,16 +34781,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>531.1342317129845</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>289.4965392293416</v>
+        <v>506.2290737327786</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>249.0744016643563</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>451.0969745740213</v>
       </c>
       <c r="M5" t="n">
-        <v>266.5465154350763</v>
+        <v>506.2290737327786</v>
       </c>
       <c r="N5" t="n">
-        <v>531.1342317129845</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>289.4965392293416</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>531.1342317129845</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>506.2290737327786</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>162.8379829700777</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>349.6338154341909</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35182,13 +35182,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>168.1956421958672</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,19 +35255,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>144.92591800486</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>484.9700051773615</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>236.7324157120106</v>
@@ -35419,7 +35419,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N11" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O11" t="n">
         <v>444.4844453457863</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>539.4516590774601</v>
       </c>
       <c r="O12" t="n">
-        <v>233.8188708867233</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215736</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
@@ -35586,7 +35586,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446891</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>286.7682222146709</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>23.49322931597588</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35969,19 +35969,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>346.1939891046024</v>
       </c>
       <c r="N18" t="n">
-        <v>545.2308884987849</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,19 +36042,19 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>213.0216270023943</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>193.8093140873221</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
@@ -36203,13 +36203,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="M21" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.636002634528606</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
@@ -36297,10 +36297,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>371.2794891934863</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>634.1127774006881</v>
@@ -36449,10 +36449,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>286.7682222146707</v>
       </c>
       <c r="Q24" t="n">
         <v>236.7324157120106</v>
@@ -36516,16 +36516,16 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L25" t="n">
-        <v>171.4214974565491</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094878</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004055</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>638.1665882070868</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>216.9849246700723</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,13 +36680,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>107.2231205187084</v>
       </c>
       <c r="N27" t="n">
-        <v>247.8874524576761</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>528.575562627224</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>627.1339852192275</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
@@ -36850,10 +36850,10 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>216.9849246700723</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>56.37828989698313</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,16 +36917,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>247.8874524576761</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>659.4884462964889</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>236.7324157120106</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215734</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963375</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.4480384844689</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>255.6972530800141</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
@@ -37075,19 +37075,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>650.274110132701</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>560.5142791723503</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>296.2990583649843</v>
+        <v>289.9992824624327</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37151,22 +37151,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576765</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>198.2933506465097</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.51188388176604</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>192.2480290407351</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>224.7823569468583</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>297.7596828067171</v>
+        <v>304.2031452793559</v>
       </c>
       <c r="N34" t="n">
-        <v>185.0400343749588</v>
+        <v>199.0297391913559</v>
       </c>
       <c r="O34" t="n">
-        <v>164.3482495370789</v>
+        <v>280.3780833636428</v>
       </c>
       <c r="P34" t="n">
-        <v>230.6734074918833</v>
+        <v>237.1168699645222</v>
       </c>
       <c r="Q34" t="n">
         <v>3.456764010152483</v>
@@ -37391,10 +37391,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
         <v>247.8874524576764</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37467,7 +37467,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>296.1454641376043</v>
+        <v>171.421497456549</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
@@ -37479,13 +37479,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>424.9260266620927</v>
       </c>
       <c r="N39" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37640,7 +37640,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>210.9596397950874</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716074</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>7.697989841835607</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>22.71185353989334</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
@@ -37868,7 +37868,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>66.39235199807291</v>
+        <v>6.174568144769586</v>
       </c>
       <c r="K43" t="n">
-        <v>179.128497157042</v>
+        <v>179.1284971570419</v>
       </c>
       <c r="L43" t="n">
-        <v>262.252334292252</v>
+        <v>262.2523342922519</v>
       </c>
       <c r="M43" t="n">
-        <v>284.640150923024</v>
+        <v>284.6401509230239</v>
       </c>
       <c r="N43" t="n">
-        <v>281.5068738451908</v>
+        <v>281.5068738451907</v>
       </c>
       <c r="O43" t="n">
-        <v>200.5973051540069</v>
+        <v>260.8150890073108</v>
       </c>
       <c r="P43" t="n">
         <v>217.5538756081901</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.92360348038447</v>
+        <v>99.92360348038444</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38026,7 +38026,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
         <v>444.4844453457863</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>249.769892037502</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>172.5106644169666</v>
       </c>
       <c r="Q45" t="n">
         <v>236.7324157120106</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>6.174568144768725</v>
+        <v>66.39235199807288</v>
       </c>
       <c r="K46" t="n">
-        <v>179.128497157042</v>
+        <v>179.1284971570419</v>
       </c>
       <c r="L46" t="n">
-        <v>262.252334292252</v>
+        <v>262.2523342922519</v>
       </c>
       <c r="M46" t="n">
-        <v>284.640150923024</v>
+        <v>284.6401509230239</v>
       </c>
       <c r="N46" t="n">
-        <v>281.5068738451908</v>
+        <v>221.2890899918875</v>
       </c>
       <c r="O46" t="n">
-        <v>260.8150890073109</v>
+        <v>260.8150890073108</v>
       </c>
       <c r="P46" t="n">
-        <v>217.5538756081902</v>
+        <v>217.5538756081901</v>
       </c>
       <c r="Q46" t="n">
-        <v>99.92360348038449</v>
+        <v>99.92360348038444</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
